--- a/Testing Approach&bugs.xlsx
+++ b/Testing Approach&bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sue/Documents/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D078B36-F0B4-F747-9BDA-CBD903672389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4E202-4BC8-9D45-AC2E-D4794204CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="25240" windowHeight="16480" activeTab="2" xr2:uid="{A0F73258-E79C-8F4D-84BE-E2F6432616E4}"/>
   </bookViews>
@@ -237,7 +237,7 @@
     <t>General</t>
   </si>
   <si>
-    <t>The general structure follows robot pattern.
+    <t>The general structure are tried to follow robot pattern concept
 Behaviour of each page are defined in support folder &gt; Robot files.
 Test scripts are in e2e folder</t>
   </si>
@@ -845,7 +845,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
